--- a/data/trans_bre/LAWTONB_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_R2-Edad-trans_bre.xlsx
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 13,26</t>
+          <t>2,39; 13,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,4; 17,43</t>
+          <t>6,61; 17,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,57; 19,09</t>
+          <t>9,84; 19,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,96; 54,86</t>
+          <t>8,01; 55,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,23; 74,18</t>
+          <t>22,0; 76,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,71; 102,58</t>
+          <t>41,53; 102,59</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 13,26</t>
+          <t>2,39; 13,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,4; 17,43</t>
+          <t>6,61; 17,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,57; 19,09</t>
+          <t>9,84; 19,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,96; 54,86</t>
+          <t>8,01; 55,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,23; 74,18</t>
+          <t>22,0; 76,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>39,71; 102,58</t>
+          <t>41,53; 102,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/LAWTONB_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_R2-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 13,17</t>
+          <t>2,4; 13,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,61; 17,68</t>
+          <t>6,22; 17,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,84; 19,4</t>
+          <t>10,02; 20,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,01; 55,56</t>
+          <t>8,13; 56,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,0; 76,68</t>
+          <t>20,98; 74,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,53; 102,59</t>
+          <t>42,59; 105,46</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 13,17</t>
+          <t>2,4; 13,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,61; 17,68</t>
+          <t>6,22; 17,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,84; 19,4</t>
+          <t>10,02; 20,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,01; 55,56</t>
+          <t>8,13; 56,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,0; 76,68</t>
+          <t>20,98; 74,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,53; 102,59</t>
+          <t>42,59; 105,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/LAWTONB_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_R2-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014</t>
+          <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,4; 13,2</t>
+          <t>2,38; 13,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,22; 17,2</t>
+          <t>6,4; 17,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,02; 20,08</t>
+          <t>9,57; 19,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,13; 56,4</t>
+          <t>5,96; 54,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,98; 74,66</t>
+          <t>21,23; 74,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>42,59; 105,46</t>
+          <t>39,71; 102,58</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,4; 13,2</t>
+          <t>2,38; 13,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,22; 17,2</t>
+          <t>6,4; 17,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,02; 20,08</t>
+          <t>9,57; 19,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,13; 56,4</t>
+          <t>5,96; 54,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,98; 74,66</t>
+          <t>21,23; 74,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>42,59; 105,46</t>
+          <t>39,71; 102,58</t>
         </is>
       </c>
     </row>
